--- a/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,89</t>
+          <t>0,0; 25,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,33</t>
+          <t>0,0; 23,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,53</t>
+          <t>0,0; 16,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,87</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>468,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>105,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>125,23%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,85; 879,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 862,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 749,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -0,71</t>
+          <t>0,49; 6,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,91</t>
+          <t>-1,88; 1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,22</t>
+          <t>-2,81; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,06</t>
+          <t>-1,17; 5,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,59</t>
+          <t>-0,36; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,51</t>
+          <t>-0,87; 2,87</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>468,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-43,49%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>191,5%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>166,74%</t>
+          <t>105,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,3%</t>
+          <t>125,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>75,72%</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,85; 879,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 353,35</t>
+          <t>-40,5; 862,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,26; 457,91</t>
+          <t>-56,45; 749,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 3,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,31</t>
+          <t>0,34; 9,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>-1,81; 4,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,47</t>
+          <t>-0,57; 3,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>-1,3; 2,83</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>400,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>100,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>154,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>62,41%</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,0</t>
+          <t>-6,95; -0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,94</t>
+          <t>-4,83; 1,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,44</t>
+          <t>-0,99; 6,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,65</t>
+          <t>-1,21; 5,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,95</t>
+          <t>-2,5; 1,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,83</t>
+          <t>-2,2; 2,51</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>-43,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>400,06%</t>
+          <t>191,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>100,77%</t>
+          <t>166,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>154,62%</t>
+          <t>-21,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-79,37; —</t>
+          <t>-100,0; 353,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,26; 457,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,31</t>
+          <t>0,0; 26,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>0,0; 23,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,47</t>
+          <t>0,0; 16,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,85</t>
+          <t>1,02; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 12,42</t>
+          <t>1,41; 12,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,33</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,96</t>
+          <t>0,63; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,79</t>
+          <t>1,21; 7,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,46</t>
+          <t>0,47; 6,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,15</t>
+          <t>-2,45; 1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,89</t>
+          <t>-2,79; 2,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,33</t>
+          <t>-1,2; 5,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,53</t>
+          <t>-0,55; 3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,87</t>
+          <t>-0,9; 2,72</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,85; 879,65</t>
+          <t>-68,31; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 862,92</t>
+          <t>-40,5; 818,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 749,34</t>
+          <t>-66,06; 727,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,0</t>
+          <t>-4,11; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,94</t>
+          <t>-1,66; 3,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,44</t>
+          <t>0,21; 9,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,65</t>
+          <t>-1,84; 4,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,95</t>
+          <t>-0,59; 3,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,83</t>
+          <t>-1,23; 2,82</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,37; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -0,71</t>
+          <t>-6,66; -0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,91</t>
+          <t>-4,7; 2,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,22</t>
+          <t>-1,11; 5,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,06</t>
+          <t>-1,16; 5,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,59</t>
+          <t>-2,66; 1,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,51</t>
+          <t>-1,98; 2,32</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 353,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,26; 457,91</t>
+          <t>-79,5; 455,46</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,22</t>
+          <t>-0,54; 2,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,12</t>
+          <t>-0,63; 2,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,45</t>
+          <t>0,31; 3,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,32</t>
+          <t>0,15; 3,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,3</t>
+          <t>0,15; 2,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,27</t>
+          <t>0,13; 2,27</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 522,94</t>
+          <t>-46,38; 708,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 496,75</t>
+          <t>-56,65; 571,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 902,71</t>
+          <t>-6,77; 766,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 836,63</t>
+          <t>-8,28; 811,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,29; 421,86</t>
+          <t>3,32; 422,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,03; 411,11</t>
+          <t>0,08; 421,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,2</t>
+          <t>0,0; 24,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,15</t>
+          <t>0,0; 26,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,53</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,78</t>
+          <t>1,02; 10,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 12,72</t>
+          <t>1,41; 12,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,29</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,68</t>
+          <t>0,59; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,47</t>
+          <t>1,3; 7,32</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,49</t>
+          <t>-0,02; 6,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,14</t>
+          <t>-1,89; 1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,83</t>
+          <t>-2,85; 2,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,44</t>
+          <t>-1,09; 5,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,58</t>
+          <t>-0,39; 3,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,72</t>
+          <t>-0,81; 2,9</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,31; —</t>
+          <t>-65,17; 1006,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 818,72</t>
+          <t>-35,63; 911,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 727,39</t>
+          <t>-48,8; 750,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,0</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,79</t>
+          <t>-1,67; 3,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,16</t>
+          <t>-0,05; 8,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,6</t>
+          <t>-1,84; 4,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,68</t>
+          <t>-0,52; 4,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,82</t>
+          <t>-1,26; 2,8</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -0,71</t>
+          <t>-6,94; -0,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,02</t>
+          <t>-5,15; 1,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,88</t>
+          <t>-0,95; 6,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,75</t>
+          <t>-1,17; 5,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,83</t>
+          <t>-2,67; 1,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,32</t>
+          <t>-1,97; 2,55</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 455,46</t>
+          <t>-79,48; 637,04</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,24</t>
+          <t>-0,67; 2,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,19</t>
+          <t>-0,59; 2,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,59</t>
+          <t>0,12; 3,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,52</t>
+          <t>0,07; 3,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,39</t>
+          <t>0,14; 2,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,27</t>
+          <t>0,05; 2,27</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 708,41</t>
+          <t>-47,69; 537,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 571,91</t>
+          <t>-50,25; 608,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 766,34</t>
+          <t>-14,7; 699,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 811,94</t>
+          <t>-10,06; 794,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,32; 422,54</t>
+          <t>3,68; 457,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,08; 421,96</t>
+          <t>-0,67; 432,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,7</t>
+          <t>0,84; 8,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,06</t>
+          <t>1,12; 9,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,46</t>
+          <t>0,94; 5,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,49</t>
+          <t>1,08; 6,15</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,5</t>
+          <t>-2,81; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 12,87</t>
+          <t>-1,17; 5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,49; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>-1,88; 1,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,75</t>
+          <t>-0,36; 3,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,32</t>
+          <t>-0,87; 2,87</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>105,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>468,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>125,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,72%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,85; 879,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,5; 862,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,45; 749,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,5</t>
+          <t>0,34; 9,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,14</t>
+          <t>-1,81; 4,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,79</t>
+          <t>-4,1; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,66</t>
+          <t>-1,65; 3,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,73</t>
+          <t>-0,57; 3,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,9</t>
+          <t>-1,3; 2,83</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>468,61%</t>
+          <t>400,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>100,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>105,91%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>125,23%</t>
+          <t>154,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>62,41%</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 1006,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 911,1</t>
+          <t>-79,37; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 750,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-0,99; 6,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,17</t>
+          <t>-1,21; 5,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 8,99</t>
+          <t>-6,95; -0,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,65</t>
+          <t>-4,83; 1,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,05</t>
+          <t>-2,5; 1,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,8</t>
+          <t>-2,2; 2,51</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>191,5%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>166,74%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>19,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>400,06%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100,77%</t>
+          <t>-43,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>154,62%</t>
+          <t>-21,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -1203,19 +1203,19 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 353,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,26; 457,91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -0,72</t>
+          <t>0,2; 3,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,98</t>
+          <t>0,14; 3,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,38</t>
+          <t>-0,61; 2,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,72</t>
+          <t>-0,66; 2,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,74</t>
+          <t>0,17; 2,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,55</t>
+          <t>0,09; 2,27</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>171,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-43,49%</t>
+          <t>160,17%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>191,5%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>166,74%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,3%</t>
+          <t>121,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>115,11%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 902,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; 836,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,01; 522,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,87; 496,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,29; 421,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,48; 637,04</t>
+          <t>2,03; 411,11</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 2,19</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 2,4</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 3,43</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 3,28</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 2,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 2,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>74,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>71,24%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>171,83%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>160,17%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>121,82%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>115,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-47,69; 537,55</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-50,25; 608,97</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; 699,31</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 794,42</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 457,47</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 432,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
